--- a/sriramModel-nelson-melancholic-patientID_60-sims-gr-5-iterations-p_stress.xlsx
+++ b/sriramModel-nelson-melancholic-patientID_60-sims-gr-5-iterations-p_stress.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.0332337543611</v>
+        <v>2.036873332653719</v>
       </c>
       <c r="C2">
-        <v>2.035959669229263</v>
+        <v>2.032081091441841</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>2.017293052741719</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>2.028708860014396</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>2.02768933995558</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.067685781350478</v>
+        <v>2.074530304871308</v>
       </c>
       <c r="C3">
-        <v>2.072586688930408</v>
+        <v>2.064752861870407</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>2.035203411573659</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>2.058361076397814</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>2.056198274495531</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.103260643007762</v>
+        <v>2.112912488147639</v>
       </c>
       <c r="C4">
-        <v>2.109827236090613</v>
+        <v>2.097979658551742</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>2.053696123368031</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>2.088900842306376</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>2.085459813740767</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.139869361069607</v>
+        <v>2.151964706738312</v>
       </c>
       <c r="C5">
-        <v>2.147631405356289</v>
+        <v>2.131727923566195</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>2.072739137130068</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>2.120276022025251</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>2.115411266654908</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.17742908855976</v>
+        <v>2.191634839530921</v>
       </c>
       <c r="C6">
-        <v>2.185953022437517</v>
+        <v>2.165966113520961</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>2.092303187578702</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>2.152438148926406</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>2.145994250180383</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.21586278120693</v>
+        <v>2.231873688616844</v>
       </c>
       <c r="C7">
-        <v>2.224749514174373</v>
+        <v>2.200664598527759</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>2.11236174629338</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>2.185342175575693</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>2.177154448016136</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.255098923507997</v>
+        <v>2.272634864111878</v>
       </c>
       <c r="C8">
-        <v>2.263981710532062</v>
+        <v>2.235795637489276</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>2.132890933548789</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>2.218946267169711</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>2.208841361448411</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.295071245026526</v>
+        <v>2.313874675812883</v>
       </c>
       <c r="C9">
-        <v>2.303613702469653</v>
+        <v>2.271333316685703</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>2.153869462903518</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>2.253211694880627</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>2.241008199618007</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.335718448937947</v>
+        <v>2.355552039181936</v>
       </c>
       <c r="C10">
-        <v>2.343612702369595</v>
+        <v>2.307253560190593</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>2.175278603406948</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>2.288102685081796</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>2.27361171931206</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.376983952851166</v>
+        <v>2.397628335533971</v>
       </c>
       <c r="C11">
-        <v>2.383948900898207</v>
+        <v>2.343533983592251</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>2.19710214000608</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>2.323586268339389</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>2.306612053785368</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.418815655376685</v>
+        <v>2.440067267572592</v>
       </c>
       <c r="C12">
-        <v>2.424595333122307</v>
+        <v>2.380153895769768</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>2.219326339873847</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>2.359632159601219</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>2.33997256348129</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.461165689676694</v>
+        <v>2.48283476820824</v>
       </c>
       <c r="C13">
-        <v>2.465527749242854</v>
+        <v>2.417094261663247</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>2.241939935191648</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>2.396212633304378</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>2.373659703380976</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.503990196489971</v>
+        <v>2.525898915388108</v>
       </c>
       <c r="C14">
-        <v>2.506724496126735</v>
+        <v>2.454337663541504</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>2.264934112941166</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>2.433302410795092</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>2.407642883764945</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.547249118960483</v>
+        <v>2.569229826163435</v>
       </c>
       <c r="C15">
-        <v>2.548166409298347</v>
+        <v>2.491868259159905</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>2.288302522212674</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>2.470878542353081</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>2.441894328274665</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.59090600632892</v>
+        <v>2.612799547256826</v>
       </c>
       <c r="C16">
-        <v>2.589836693232292</v>
+        <v>2.529671745212639</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>2.312041300401874</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>2.50892036057722</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>2.476389002078653</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.634927820076409</v>
+        <v>2.656581955769472</v>
       </c>
       <c r="C17">
-        <v>2.631720823317799</v>
+        <v>2.567735326630706</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>2.336149107848203</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>2.547409340230945</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>2.511104469595744</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.679284749340563</v>
+        <v>2.700552672658171</v>
       </c>
       <c r="C18">
-        <v>2.673806458374875</v>
+        <v>2.606047688010801</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>2.360627182600429</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>2.586329020809942</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>2.546020774142574</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.723950044586277</v>
+        <v>2.74468898206859</v>
       </c>
       <c r="C19">
-        <v>2.71608335546212</v>
+        <v>2.644598962322623</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>2.385479405219361</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>2.625664952597014</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>2.581120356840541</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.768899864049746</v>
+        <v>2.788969752920815</v>
       </c>
       <c r="C20">
-        <v>2.75854328999832</v>
+        <v>2.68338072096891</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>2.41071239867169</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>2.665404647707091</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>2.61638799482197</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.81411312436739</v>
+        <v>2.833375366755198</v>
       </c>
       <c r="C21">
-        <v>2.801179986352129</v>
+        <v>2.72238594001736</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>2.436335639821723</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>2.705537526473502</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>2.65181072758781</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.859571361203189</v>
+        <v>2.877887645414547</v>
       </c>
       <c r="C22">
-        <v>2.843989049057579</v>
+        <v>2.761608981789954</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>2.462361601051786</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>2.746054873572345</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>2.68737778832704</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.905258600833283</v>
+        <v>2.92248979312858</v>
       </c>
       <c r="C23">
-        <v>2.886967916483701</v>
+        <v>2.801045583387598</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>2.488805912711572</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>2.786949818224565</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>2.723080556404</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.951161243736212</v>
+        <v>2.967166352290139</v>
       </c>
       <c r="C24">
-        <v>2.930115815454907</v>
+        <v>2.840692823369059</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>2.515687563324136</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>2.828217310338042</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>2.758912509890799</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.997267959930673</v>
+        <v>3.011903135118057</v>
       </c>
       <c r="C25">
-        <v>2.973433724820691</v>
+        <v>2.880549121178773</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>2.543029135608511</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>2.86985412405398</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>2.794869206518446</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>3.04356959346378</v>
+        <v>3.056687225027338</v>
       </c>
       <c r="C26">
-        <v>3.016924347033012</v>
+        <v>2.920614215018898</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>2.570857072515057</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>2.911858892515732</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>2.830948283649596</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>3.090059076473899</v>
+        <v>3.101506922290419</v>
       </c>
       <c r="C27">
-        <v>3.060592091413394</v>
+        <v>2.960889154665476</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>2.599201992252679</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>2.9542320977509</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>2.867149427756841</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>3.136731353948442</v>
+        <v>3.146351737209802</v>
       </c>
       <c r="C28">
-        <v>3.104443067459486</v>
+        <v>3.001376281740173</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>2.628099026837423</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>2.996976170998427</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>2.90347443736372</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>3.183583322127378</v>
+        <v>3.191212394867334</v>
       </c>
       <c r="C29">
-        <v>3.148485088003662</v>
+        <v>3.042079213319779</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>2.657588245243379</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>3.040095545421586</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>2.93992723747903</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>3.230613777549425</v>
+        <v>3.236080817970685</v>
       </c>
       <c r="C30">
-        <v>3.192727685240352</v>
+        <v>3.083002822460018</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>2.68771510252451</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>3.083596724002183</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>2.976513912663004</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>3.27782337808761</v>
+        <v>3.280950164291857</v>
       </c>
       <c r="C31">
-        <v>3.237182132059864</v>
+        <v>3.124153213511044</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>2.718530948099707</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>3.127488419380896</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>3.013242815813182</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>3.325214616235786</v>
+        <v>3.325814867211006</v>
       </c>
       <c r="C32">
-        <v>3.281861487126845</v>
+        <v>3.16553769649856</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>2.750093581633305</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>3.171781696015668</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>3.050124639886541</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>3.372791807070636</v>
+        <v>3.370670649365082</v>
       </c>
       <c r="C33">
-        <v>3.326780642732503</v>
+        <v>3.207164757342572</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>2.782467855830776</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>3.216490100650292</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>3.087172518528617</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>3.420561088584893</v>
+        <v>3.415514632466589</v>
       </c>
       <c r="C34">
-        <v>3.371956389831938</v>
+        <v>3.249044013896162</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>2.815726343714921</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>3.261629906659866</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>3.124402212715752</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>3.468530437656782</v>
+        <v>3.460345407353518</v>
       </c>
       <c r="C35">
-        <v>3.417407493103465</v>
+        <v>3.291186165471244</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>2.849949998130225</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>3.307220353492754</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>3.161832246016564</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>3.516709701963009</v>
+        <v>3.505163108777874</v>
       </c>
       <c r="C36">
-        <v>3.463154784332224</v>
+        <v>3.333602950496545</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>2.885228812017067</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>3.353283869973111</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>3.199484106633769</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>3.565110648975446</v>
+        <v>3.549969600353251</v>
       </c>
       <c r="C37">
-        <v>3.509221270822945</v>
+        <v>3.376307048317457</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>2.921662430783233</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>3.399846446839806</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>3.237382528303908</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>3.613747031844559</v>
+        <v>3.594768555798403</v>
       </c>
       <c r="C38">
-        <v>3.555632253880427</v>
+        <v>3.419312002441923</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>2.959360665563286</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>3.446937975197219</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>3.275555682432727</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>3.662634677310221</v>
+        <v>3.639565711852817</v>
       </c>
       <c r="C39">
-        <v>3.602415464785062</v>
+        <v>3.462632117949774</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>2.99844378463171</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>3.494592701692455</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>3.314035606785147</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>3.711791592402551</v>
+        <v>3.684369047149642</v>
       </c>
       <c r="C40">
-        <v>3.649601206409269</v>
+        <v>3.506282338987172</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>3.039042449086373</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>3.542849684987539</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>3.352858527724915</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>3.761238094279124</v>
+        <v>3.729189016119568</v>
       </c>
       <c r="C41">
-        <v>3.697222521240317</v>
+        <v>3.550278101552484</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>3.081297019588219</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>3.591753306799941</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>3.39206527086901</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>3.810996964209624</v>
+        <v>3.774038825915345</v>
       </c>
       <c r="C42">
-        <v>3.745315357338618</v>
+        <v>3.594635161796457</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>3.125356279793988</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>3.641353865617473</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>3.431701742013702</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>3.861093627345033</v>
+        <v>3.818934758348058</v>
       </c>
       <c r="C43">
-        <v>3.793918744200931</v>
+        <v>3.639369399446031</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>3.171375119249662</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>3.691708239916829</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>3.471819477182371</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>3.911556359899759</v>
+        <v>3.863896536329606</v>
       </c>
       <c r="C44">
-        <v>3.84307496797425</v>
+        <v>3.684496594351778</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>3.219510868435229</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>3.74288059745008</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>3.512476257169379</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>3.962416525255826</v>
+        <v>3.908947728086263</v>
       </c>
       <c r="C45">
-        <v>3.89282975195397</v>
+        <v>3.730032173792608</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>3.269918201919845</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>3.794943142776463</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>3.553736784715006</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>4.013708840437963</v>
+        <v>3.954116215519734</v>
       </c>
       <c r="C46">
-        <v>3.943232408875085</v>
+        <v>3.775990930119515</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>3.322742043678629</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>3.847976892086706</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>3.595673424608014</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>4.065471673294579</v>
+        <v>3.999434705978426</v>
       </c>
       <c r="C47">
-        <v>3.99433597202087</v>
+        <v>3.822386710119766</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>3.378109224878232</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>3.902072448108894</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>3.638366996852588</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>4.117747368790805</v>
+        <v>4.044941311690491</v>
       </c>
       <c r="C48">
-        <v>4.046197285652545</v>
+        <v>3.869232076512069</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>3.436119082689932</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>3.957330731573296</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>3.681907619149984</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>4.170582609307086</v>
+        <v>4.090680193478178</v>
       </c>
       <c r="C49">
-        <v>4.098877035342384</v>
+        <v>3.916537948383462</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>3.496833533943331</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>4.013863598557639</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>3.726395561640431</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>4.224028797869502</v>
+        <v>4.1367022702399</v>
       </c>
       <c r="C50">
-        <v>4.152439666786576</v>
+        <v>3.964313226072307</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>3.560268209063679</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>4.071794210130971</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>3.771942065772968</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>4.278142463529199</v>
+        <v>4.183065996368263</v>
       </c>
       <c r="C51">
-        <v>4.206953203194784</v>
+        <v>4.012564397585653</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>3.626386225313832</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>4.1312570840718</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>3.818670032176234</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>4.332985678099444</v>
+        <v>4.229838163017548</v>
       </c>
       <c r="C52">
-        <v>4.262488892202151</v>
+        <v>4.061295154261509</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>3.695095778845265</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>4.192397614890737</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>3.86671449418349</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>4.388627024674435</v>
+        <v>4.277095057435874</v>
       </c>
       <c r="C53">
-        <v>4.319120875221739</v>
+        <v>4.110506149331475</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>3.766252716748375</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>4.255371210914157</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>3.916222975905809</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>4.445147604403934</v>
+        <v>4.324925120457369</v>
       </c>
       <c r="C54">
-        <v>4.376927791469877</v>
+        <v>4.160195992502099</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>3.839669799948195</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>4.320344669041408</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>3.967357987133078</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>4.502646078141114</v>
+        <v>4.373431264693118</v>
       </c>
       <c r="C55">
-        <v>4.435993418846087</v>
+        <v>4.21036193196626</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>3.915128571556915</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>4.387495973437095</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>4.020298247379437</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>4.561237933830047</v>
+        <v>4.422731322081471</v>
       </c>
       <c r="C56">
-        <v>4.496404101957221</v>
+        <v>4.260999107926013</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>3.992391653010204</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>4.457008517562207</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>4.075235426985523</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>4.621053846281261</v>
+        <v>4.472957937569126</v>
       </c>
       <c r="C57">
-        <v>4.558245652115656</v>
+        <v>4.312099760105743</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>4.07121476429302</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>4.529063215571734</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>4.132368794761827</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>4.682238014430864</v>
+        <v>4.524258288682113</v>
       </c>
       <c r="C58">
-        <v>4.621599899695385</v>
+        <v>4.363652554702775</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>4.151357161049699</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>4.603828758606765</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>4.191897888764484</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>4.744946135153157</v>
+        <v>4.576793318275373</v>
       </c>
       <c r="C59">
-        <v>4.686540912583963</v>
+        <v>4.41564205295859</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>4.232589590647302</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>4.681450476880792</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>4.25401221857997</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>4.809343015636153</v>
+        <v>4.630736145718726</v>
       </c>
       <c r="C60">
-        <v>4.753130991775743</v>
+        <v>4.468048338759717</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>4.31469948812071</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>4.762038415043008</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>4.318879123761467</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>4.875599587758502</v>
+        <v>4.686269303111239</v>
       </c>
       <c r="C61">
-        <v>4.821416532786429</v>
+        <v>4.520846817834794</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>4.397493665952481</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>4.845656157537751</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>4.386629173147103</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>4.943889188081704</v>
+        <v>4.743580298608673</v>
       </c>
       <c r="C62">
-        <v>4.891423988466212</v>
+        <v>4.574008192265027</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>4.480799016206498</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>4.932311666334268</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>4.457341098726758</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>5.014382898566956</v>
+        <v>4.802855028534822</v>
       </c>
       <c r="C63">
-        <v>4.963156217902892</v>
+        <v>4.627498605292564</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>4.564461880219056</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>5.021952171289977</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>4.531028017830448</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>5.087243797780284</v>
+        <v>4.864268634228784</v>
       </c>
       <c r="C64">
-        <v>5.036589562495667</v>
+        <v>4.681279942383912</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>4.648346632844748</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>5.114464051821018</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>4.60762762931846</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>5.162620035522513</v>
+        <v>4.927973693709437</v>
       </c>
       <c r="C65">
-        <v>5.111672003987708</v>
+        <v>4.735310266638288</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>4.732333914904542</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>5.209678214052452</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>4.68699878220565</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>5.240636820348652</v>
+        <v>4.994086186815328</v>
       </c>
       <c r="C66">
-        <v>5.188322702025935</v>
+        <v>4.789544361190964</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>4.816318798546289</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>5.307380185268376</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>4.76892587588795</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>5.321387652471774</v>
+        <v>5.062670470379441</v>
       </c>
       <c r="C67">
-        <v>5.266433090487508</v>
+        <v>4.843934344624341</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>4.90020904432754</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>5.407323316181432</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>4.853130903858833</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>5.404925457124609</v>
+        <v>5.133725395765138</v>
       </c>
       <c r="C68">
-        <v>5.345869532865747</v>
+        <v>4.898430333722986</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>4.983923529383302</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>5.509243011973587</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>4.939291164430409</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>5.491254606207626</v>
+        <v>5.207174345549563</v>
       </c>
       <c r="C69">
-        <v>5.426477345966219</v>
+        <v>4.952981119662295</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>5.067390864134009</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>5.612870054308615</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>5.027059544408808</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>5.580325033737767</v>
+        <v>5.282861905610944</v>
       </c>
       <c r="C70">
-        <v>5.508085829601918</v>
+        <v>5.007534827206229</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>5.150548190922722</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>5.717941629507438</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>5.116084088590447</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>5.672029645000046</v>
+        <v>5.360558860250492</v>
       </c>
       <c r="C71">
-        <v>5.590513830895156</v>
+        <v>5.062039541998367</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>5.233340148917292</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>5.824209401465754</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>5.206024343658257</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>5.766205859007005</v>
+        <v>5.439975350924718</v>
       </c>
       <c r="C72">
-        <v>5.673575348710594</v>
+        <v>5.116443885448686</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>5.315717981275541</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>5.93144460552882</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>5.29656317908595</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>5.862641509356671</v>
+        <v>5.520780024386655</v>
       </c>
       <c r="C73">
-        <v>5.757084738890096</v>
+        <v>5.170697525534375</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>5.397638765511592</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>6.039440573745543</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>5.387413934945338</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>5.961084511720215</v>
+        <v>5.602621675787427</v>
       </c>
       <c r="C74">
-        <v>5.840861194902224</v>
+        <v>5.224751617854323</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>5.479064748015095</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>6.148013292023104</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>5.478323566979135</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6.061255035467852</v>
+        <v>5.685149759049372</v>
       </c>
       <c r="C75">
-        <v>5.924732315557537</v>
+        <v>5.278559174044604</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>5.559962767324988</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>6.257000605934106</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>5.569072785457839</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6.162858559034102</v>
+        <v>5.768031038762587</v>
       </c>
       <c r="C76">
-        <v>6.008536689493013</v>
+        <v>5.332075358531408</v>
       </c>
       <c r="D76">
-        <v>0</v>
+        <v>5.640303752880427</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>6.366260622641641</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>5.659474234980265</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6.265598222639339</v>
+        <v>5.850961105623433</v>
       </c>
       <c r="C77">
-        <v>6.092125584683235</v>
+        <v>5.385257716747503</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>5.720062288058106</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>6.47566970401302</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>5.749369575687662</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6.369185285272881</v>
+        <v>5.933670767118365</v>
       </c>
       <c r="C78">
-        <v>6.175363884975535</v>
+        <v>5.438066340439589</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>5.799216228184846</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>6.585120323735373</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>5.838626127200667</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6.47334701840304</v>
+        <v>6.015928196250596</v>
       </c>
       <c r="C79">
-        <v>6.258130235658779</v>
+        <v>5.490463975837423</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>5.877746365403063</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>6.69451900488904</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>5.927133439323997</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6.577831926663463</v>
+        <v>6.097538035994746</v>
       </c>
       <c r="C80">
-        <v>6.340316765542036</v>
+        <v>5.542416082087046</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>5.955636133797566</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>6.803784409537321</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>6.014800078833224</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6.682412669185888</v>
+        <v>6.178338617341893</v>
       </c>
       <c r="C81">
-        <v>6.421828524769377</v>
+        <v>5.593890852802166</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>6.032871348972749</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>6.912845629971435</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>6.101550773078408</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6.786886810200603</v>
+        <v>6.258198300991228</v>
       </c>
       <c r="C82">
-        <v>6.502582649451488</v>
+        <v>5.644859195820731</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>6.109439977275281</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>7.021640702440982</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>6.187323898679074</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6.891076291670495</v>
+        <v>6.337011454381587</v>
       </c>
       <c r="C83">
-        <v>6.582507393549665</v>
+        <v>5.695294680888599</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>6.185331930824196</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>7.130115328677066</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>6.272069338531293</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6.994826028398364</v>
+        <v>6.414694540250951</v>
       </c>
       <c r="C84">
-        <v>6.661541132468996</v>
+        <v>5.745173468981049</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>6.260538884207821</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>7.238221789707676</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>6.355746671628623</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>7.098001945276671</v>
+        <v>6.491182612302521</v>
       </c>
       <c r="C85">
-        <v>6.739631370459741</v>
+        <v>5.794474226903224</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>6.335054109431415</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>7.34591802943369</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>6.438323665488611</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>7.200488661914557</v>
+        <v>6.566426248956054</v>
       </c>
       <c r="C86">
-        <v>6.816733793274381</v>
+        <v>5.843178010463498</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>6.40887232495353</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>7.453166885051163</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>6.519775014539515</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7.302187835760793</v>
+        <v>6.640389027200548</v>
       </c>
       <c r="C87">
-        <v>6.892811402225562</v>
+        <v>5.891268259714956</v>
       </c>
       <c r="D87">
-        <v>0</v>
+        <v>6.481989597700085</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>7.559935481368121</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>6.600081338513514</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>7.403015176563636</v>
+        <v>6.713044850071036</v>
       </c>
       <c r="C88">
-        <v>6.967833704761818</v>
+        <v>5.938730442678295</v>
       </c>
       <c r="D88">
-        <v>0</v>
+        <v>6.554403149319568</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>7.666194605564256</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>6.679228183754473</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>7.502899195925504</v>
+        <v>6.784376528636093</v>
       </c>
       <c r="C89">
-        <v>7.041775778790907</v>
+        <v>5.98555213388829</v>
       </c>
       <c r="D89">
-        <v>0</v>
+        <v>6.626111317102374</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>7.77191823473938</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>6.757205372904437</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7.601779203106805</v>
+        <v>6.854374186969911</v>
       </c>
       <c r="C90">
-        <v>7.114617508520361</v>
+        <v>6.031722850741679</v>
       </c>
       <c r="D90">
-        <v>0</v>
+        <v>6.697113406779877</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>7.877083175029545</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>6.834006439233704</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>7.699604176118474</v>
+        <v>6.923033917940847</v>
       </c>
       <c r="C91">
-        <v>7.186343639076703</v>
+        <v>6.077233916170506</v>
       </c>
       <c r="D91">
-        <v>0</v>
+        <v>6.767409639921324</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>7.981668876832464</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>6.909628044396229</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>7.796331115153841</v>
+        <v>6.990356744389834</v>
       </c>
       <c r="C92">
-        <v>7.256942835784161</v>
+        <v>6.122078345059052</v>
       </c>
       <c r="D92">
-        <v>0</v>
+        <v>6.837001071625512</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>8.085657047555355</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>6.984069539574964</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>7.891923977887523</v>
+        <v>7.056347776688377</v>
       </c>
       <c r="C93">
-        <v>7.326407106148478</v>
+        <v>6.166250734071133</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>6.905889490526533</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>8.18903137096337</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>7.057332720342082</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>7.986352834171022</v>
+        <v>7.121015633285619</v>
       </c>
       <c r="C94">
-        <v>7.394731460986992</v>
+        <v>6.209747108934754</v>
       </c>
       <c r="D94">
-        <v>0</v>
+        <v>6.974077355434203</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>8.291777323262318</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>7.129421420003114</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>8.079593109081683</v>
+        <v>7.184371721319227</v>
       </c>
       <c r="C95">
-        <v>7.461913615085029</v>
+        <v>6.252564839736431</v>
       </c>
       <c r="D95">
-        <v>0</v>
+        <v>7.041567738045468</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>8.393882015370217</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>7.200341216245191</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>8.171624750564479</v>
+        <v>7.246429755244615</v>
       </c>
       <c r="C96">
-        <v>7.527953594341167</v>
+        <v>6.294702591281847</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>7.108364272502398</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>8.495334047985564</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>7.27009922509101</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>8.262431593524633</v>
+        <v>7.307205365818421</v>
       </c>
       <c r="C97">
-        <v>7.592853526107615</v>
+        <v>6.336160175471969</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>7.174471100542251</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>8.596123380125251</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>7.338703916982725</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>8.352000947537837</v>
+        <v>7.366715785424606</v>
       </c>
       <c r="C98">
-        <v>7.656617389872267</v>
+        <v>6.376938446632947</v>
       </c>
       <c r="D98">
-        <v>0</v>
+        <v>7.239892815653818</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>8.696241198718235</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>7.406164967141015</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>8.440323221222114</v>
+        <v>7.42497966640896</v>
       </c>
       <c r="C99">
-        <v>7.719250761028442</v>
+        <v>6.417039221186349</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>7.304634413002661</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>8.795679783129776</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>7.472493079363041</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>8.527391525829959</v>
+        <v>7.482016722194134</v>
       </c>
       <c r="C100">
-        <v>7.780760726853504</v>
+        <v>6.456465192156232</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>7.368701248064853</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>8.894432439134896</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>7.537699836067718</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>8.613201321584484</v>
+        <v>7.537847487026035</v>
       </c>
       <c r="C101">
-        <v>7.841155457922208</v>
+        <v>6.495219866899246</v>
       </c>
       <c r="D101">
-        <v>0</v>
+        <v>7.432099008990368</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>8.992493424463706</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>7.601797571215357</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>8.697750164429227</v>
+        <v>7.592493167970116</v>
       </c>
       <c r="C102">
-        <v>7.900444212818218</v>
+        <v>6.533307517887502</v>
       </c>
       <c r="D102">
-        <v>0</v>
+        <v>7.494833683127085</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>9.089857872603552</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>7.664799261384265</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>8.781037431228144</v>
+        <v>7.645975517204221</v>
       </c>
       <c r="C103">
-        <v>7.958637202940847</v>
+        <v>6.570733068516083</v>
       </c>
       <c r="D103">
-        <v>0</v>
+        <v>7.556911520274435</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>9.186521721850662</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>7.726718469727593</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>8.863064135266805</v>
+        <v>7.698316725994071</v>
       </c>
       <c r="C104">
-        <v>8.015745451234105</v>
+        <v>6.607502049570612</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>7.618339001641306</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>9.282481654795307</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>7.787569264657451</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>8.943832786712932</v>
+        <v>7.749539318236096</v>
       </c>
       <c r="C105">
-        <v>8.071780761262129</v>
+        <v>6.643620528940348</v>
       </c>
       <c r="D105">
-        <v>0</v>
+        <v>7.679122812372265</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>9.377735028274969</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>7.847366129821907</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>9.023347193948796</v>
+        <v>7.799666038235007</v>
       </c>
       <c r="C106">
-        <v>8.126755549202716</v>
+        <v>6.679095037390955</v>
       </c>
       <c r="D106">
-        <v>0</v>
+        <v>7.739269813944683</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>9.472279845027773</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>7.906123898610145</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>9.101612332693882</v>
+        <v>7.84871975692844</v>
       </c>
       <c r="C107">
-        <v>8.180682775891317</v>
+        <v>6.713932553610299</v>
       </c>
       <c r="D107">
-        <v>0</v>
+        <v>7.798787026732582</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>9.566114670782291</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>7.963857681959913</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>9.178634229648331</v>
+        <v>7.896723401129445</v>
       </c>
       <c r="C108">
-        <v>8.233575860794831</v>
+        <v>6.748140442194784</v>
       </c>
       <c r="D108">
-        <v>0</v>
+        <v>7.857681597109666</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>9.659238636346325</v>
       </c>
       <c r="F108">
-        <v>0</v>
+        <v>8.020582833489566</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>9.254419836996579</v>
+        <v>7.943699882076712</v>
       </c>
       <c r="C109">
-        <v>8.285448621390834</v>
+        <v>6.781726422205542</v>
       </c>
       <c r="D109">
-        <v>0</v>
+        <v>7.915960796233471</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>9.751651361393435</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>8.076314867504099</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>9.328976922038912</v>
+        <v>7.989672038133774</v>
       </c>
       <c r="C110">
-        <v>8.336315151885463</v>
+        <v>6.81469851383336</v>
       </c>
       <c r="D110">
-        <v>0</v>
+        <v>7.973631981447627</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>9.843352944307517</v>
       </c>
       <c r="F110">
-        <v>0</v>
+        <v>8.131069459628968</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>9.402314000601468</v>
+        <v>8.03466262037227</v>
       </c>
       <c r="C111">
-        <v>8.386189918520785</v>
+        <v>6.847065000554595</v>
       </c>
       <c r="D111">
-        <v>0</v>
+        <v>8.030702598386867</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>9.934343920086025</v>
       </c>
       <c r="F111">
-        <v>0</v>
+        <v>8.184862371007506</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>9.474440253134338</v>
+        <v>8.078694185947789</v>
       </c>
       <c r="C112">
-        <v>8.435087430758738</v>
+        <v>6.878834396623208</v>
       </c>
       <c r="D112">
-        <v>0</v>
+        <v>8.087180151282261</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>10.02462522116046</v>
       </c>
       <c r="F112">
-        <v>0</v>
+        <v>8.237709438909066</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>9.545365444578607</v>
+        <v>8.121789168042378</v>
       </c>
       <c r="C113">
-        <v>8.483022594855445</v>
+        <v>6.910015404623147</v>
       </c>
       <c r="D113">
-        <v>0</v>
+        <v>8.143072196399476</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>10.11419816235594</v>
       </c>
       <c r="F113">
-        <v>0</v>
+        <v>8.289626537686484</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>9.615099869882592</v>
+        <v>8.163969733462736</v>
       </c>
       <c r="C114">
-        <v>8.530010228512019</v>
+        <v>6.940616890787654</v>
       </c>
       <c r="D114">
-        <v>0</v>
+        <v>8.198386326197356</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>10.20306439476606</v>
       </c>
       <c r="F114">
-        <v>0</v>
+        <v>8.340629538634381</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>9.68365429058097</v>
+        <v>8.205257845321869</v>
       </c>
       <c r="C115">
-        <v>8.576065454070015</v>
+        <v>6.970647866078098</v>
       </c>
       <c r="D115">
-        <v>0</v>
+        <v>8.253130154589938</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>10.29122589775037</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>8.390734303183242</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>9.751039879531373</v>
+        <v>8.245675177160226</v>
       </c>
       <c r="C116">
-        <v>8.621203325926361</v>
+        <v>7.000117422601565</v>
       </c>
       <c r="D116">
-        <v>0</v>
+        <v>8.307311313170134</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>10.37868493764103</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>8.439956632789576</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>9.817268168778664</v>
+        <v>8.285243120250541</v>
       </c>
       <c r="C117">
-        <v>8.665439013577027</v>
+        <v>7.029034784013609</v>
       </c>
       <c r="D117">
-        <v>0</v>
+        <v>8.360937431735209</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>10.46544406432274</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>8.488312273099329</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>9.882351012254919</v>
+        <v>8.32398274917834</v>
       </c>
       <c r="C118">
-        <v>8.708787679122382</v>
+        <v>7.057409186977283</v>
       </c>
       <c r="D118">
-        <v>0</v>
+        <v>8.414016139118505</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>10.55150607464376</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>8.535816868578612</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>9.946300541945474</v>
+        <v>8.361914815402661</v>
       </c>
       <c r="C119">
-        <v>8.751264469369051</v>
+        <v>7.085249968127521</v>
       </c>
       <c r="D119">
-        <v>0</v>
+        <v>8.466555046650685</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>10.63687400569555</v>
       </c>
       <c r="F119">
-        <v>0</v>
+        <v>8.582485973048524</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>10.0091291273652</v>
+        <v>8.399059734801918</v>
       </c>
       <c r="C120">
-        <v>8.792884495324017</v>
+        <v>7.112566448192325</v>
       </c>
       <c r="D120">
-        <v>0</v>
+        <v>8.518561745940337</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>10.72155111007593</v>
       </c>
       <c r="F120">
-        <v>0</v>
+        <v>8.628335009234883</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>10.07084934769789</v>
+        <v>8.435437572223</v>
       </c>
       <c r="C121">
-        <v>8.833662800307836</v>
+        <v>7.139367992727029</v>
       </c>
       <c r="D121">
-        <v>0</v>
+        <v>8.570043799510659</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>10.80554083960668</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>8.673379276490609</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>10.13147395741009</v>
+        <v>8.471068049269213</v>
       </c>
       <c r="C122">
-        <v>8.873614363175177</v>
+        <v>7.165663938407284</v>
       </c>
       <c r="D122">
-        <v>0</v>
+        <v>8.621008733604597</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>10.88884683376925</v>
       </c>
       <c r="F122">
-        <v>0</v>
+        <v>8.717633923926883</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>10.1910158608061</v>
+        <v>8.505970515502964</v>
       </c>
       <c r="C123">
-        <v>8.912754043125057</v>
+        <v>7.191463621167134</v>
       </c>
       <c r="D123">
-        <v>0</v>
+        <v>8.671464035672138</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>10.97147289604412</v>
       </c>
       <c r="F123">
-        <v>0</v>
+        <v>8.761113947107841</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>10.24948807825764</v>
+        <v>8.540163966074347</v>
       </c>
       <c r="C124">
-        <v>8.951096629162913</v>
+        <v>7.216776327459137</v>
       </c>
       <c r="D124">
-        <v>0</v>
+        <v>8.721417144443881</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>11.05342299061526</v>
       </c>
       <c r="F124">
-        <v>0</v>
+        <v>8.803834177190071</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>10.30690372665167</v>
+        <v>8.573667019115808</v>
       </c>
       <c r="C125">
-        <v>8.988656749557919</v>
+        <v>7.241611312544332</v>
       </c>
       <c r="D125">
-        <v>0</v>
+        <v>8.770875450322469</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>11.13470121839478</v>
       </c>
       <c r="F125">
-        <v>0</v>
+        <v>8.845809267368608</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>10.36327599920737</v>
+        <v>8.606497925413617</v>
       </c>
       <c r="C126">
-        <v>9.025448946072569</v>
+        <v>7.265977764954973</v>
       </c>
       <c r="D126">
-        <v>0</v>
+        <v>8.819846286835988</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>11.21531181508225</v>
       </c>
       <c r="F126">
-        <v>0</v>
+        <v>8.887053694847518</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>10.41861812181486</v>
+        <v>8.638674557348773</v>
       </c>
       <c r="C127">
-        <v>9.061487586228452</v>
+        <v>7.289884814994027</v>
       </c>
       <c r="D127">
-        <v>0</v>
+        <v>8.86833692992341</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>11.29525913080364</v>
       </c>
       <c r="F127">
-        <v>0</v>
+        <v>8.927581742047638</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>10.47294338948275</v>
+        <v>8.670214415139247</v>
       </c>
       <c r="C128">
-        <v>9.096786913159612</v>
+        <v>7.313341518731863</v>
       </c>
       <c r="D128">
-        <v>0</v>
+        <v>8.916354593174663</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>11.37454762654405</v>
       </c>
       <c r="F128">
-        <v>0</v>
+        <v>8.967407504692428</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>10.52626506972562</v>
+        <v>8.701134623161481</v>
       </c>
       <c r="C129">
-        <v>9.13136099622621</v>
+        <v>7.336356848479162</v>
       </c>
       <c r="D129">
-        <v>0</v>
+        <v>8.963906424412214</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>11.45318185922173</v>
       </c>
       <c r="F129">
-        <v>0</v>
+        <v>9.006544874302142</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>10.5785964787589</v>
+        <v>8.731451932579594</v>
       </c>
       <c r="C130">
-        <v>9.165223747202701</v>
+        <v>7.358939697676265</v>
       </c>
       <c r="D130">
-        <v>0</v>
+        <v>9.010999504866751</v>
       </c>
       <c r="E130">
-        <v>0</v>
+        <v>11.53116647441358</v>
       </c>
       <c r="F130">
-        <v>0</v>
+        <v>9.045007545775556</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>10.6299508801207</v>
+        <v>8.761182725930645</v>
       </c>
       <c r="C131">
-        <v>9.198388900086051</v>
+        <v>7.38109885648386</v>
       </c>
       <c r="D131">
-        <v>0</v>
+        <v>9.057640844094619</v>
       </c>
       <c r="E131">
-        <v>0</v>
+        <v>11.60850619797943</v>
       </c>
       <c r="F131">
-        <v>0</v>
+        <v>9.082809004801909</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>10.68034154314099</v>
+        <v>8.790343013837971</v>
       </c>
       <c r="C132">
-        <v>9.230870012891529</v>
+        <v>7.402843023579241</v>
       </c>
       <c r="D132">
-        <v>0</v>
+        <v>9.103837380814808</v>
       </c>
       <c r="E132">
-        <v>0</v>
+        <v>11.68520582454432</v>
       </c>
       <c r="F132">
-        <v>0</v>
+        <v>9.119962532322226</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>10.72978167664511</v>
+        <v>8.818948445568445</v>
       </c>
       <c r="C133">
-        <v>9.262680462785893</v>
+        <v>7.42418078576241</v>
       </c>
       <c r="D133">
-        <v>0</v>
+        <v>9.149595978653956</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>11.7612702146456</v>
       </c>
       <c r="F133">
-        <v>0</v>
+        <v>9.156481197805483</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>10.77828445344306</v>
+        <v>8.847014305487948</v>
       </c>
       <c r="C134">
-        <v>9.293833433897184</v>
+        <v>7.445120628974357</v>
       </c>
       <c r="D134">
-        <v>0</v>
+        <v>9.194923426341528</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>11.8367042815491</v>
       </c>
       <c r="F134">
-        <v>0</v>
+        <v>9.192377859995565</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>10.82586297784695</v>
+        <v>8.874555522876122</v>
       </c>
       <c r="C135">
-        <v>9.324341930431993</v>
+        <v>7.465670917733913</v>
       </c>
       <c r="D135">
-        <v>0</v>
+        <v>9.239826435615752</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>11.91151299034058</v>
       </c>
       <c r="F135">
-        <v>0</v>
+        <v>9.227665165920161</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>10.87253028627373</v>
+        <v>8.901586671600992</v>
       </c>
       <c r="C136">
-        <v>9.354218752708993</v>
+        <v>7.485839909609311</v>
       </c>
       <c r="D136">
-        <v>0</v>
+        <v>9.284311639930412</v>
       </c>
       <c r="E136">
-        <v>0</v>
+        <v>11.98570134607866</v>
       </c>
       <c r="F136">
-        <v>0</v>
+        <v>9.262355548106505</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>10.91829933585785</v>
+        <v>8.928121978402741</v>
       </c>
       <c r="C137">
-        <v>9.383476517993415</v>
+        <v>7.505635734081838</v>
       </c>
       <c r="D137">
-        <v>0</v>
+        <v>9.328385594613936</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>12.0592743923644</v>
       </c>
       <c r="F137">
-        <v>0</v>
+        <v>9.296461228344477</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>10.96318299275779</v>
+        <v>8.954175325458806</v>
       </c>
       <c r="C138">
-        <v>9.412127636682838</v>
+        <v>7.525066408654419</v>
       </c>
       <c r="D138">
-        <v>0</v>
+        <v>9.372054774569303</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>12.13223720216714</v>
       </c>
       <c r="F138">
-        <v>0</v>
+        <v>9.329994212903529</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>11.00719403869842</v>
+        <v>8.979760257085561</v>
       </c>
       <c r="C139">
-        <v>9.440184330174228</v>
+        <v>7.544139819671216</v>
       </c>
       <c r="D139">
-        <v>0</v>
+        <v>9.415325575423193</v>
       </c>
       <c r="E139">
-        <v>0</v>
+        <v>12.20459487486781</v>
       </c>
       <c r="F139">
-        <v>0</v>
+        <v>9.362966298315653</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>11.05034514327565</v>
+        <v>9.004889986837133</v>
       </c>
       <c r="C140">
-        <v>9.467658613347634</v>
+        <v>7.562863734805942</v>
       </c>
       <c r="D140">
-        <v>0</v>
+        <v>9.458204311680065</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>12.27635253031739</v>
       </c>
       <c r="F140">
-        <v>0</v>
+        <v>9.395389067411182</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>11.09264888361331</v>
+        <v>9.029577398666445</v>
       </c>
       <c r="C141">
-        <v>9.494562307876345</v>
+        <v>7.58124579236123</v>
       </c>
       <c r="D141">
-        <v>0</v>
+        <v>9.500697217476375</v>
       </c>
       <c r="E141">
-        <v>0</v>
+        <v>12.34751530379059</v>
       </c>
       <c r="F141">
-        <v>0</v>
+        <v>9.427273894476729</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>11.13411771363532</v>
+        <v>9.053835053857821</v>
       </c>
       <c r="C142">
-        <v>9.520907030132758</v>
+        <v>7.599293505264613</v>
       </c>
       <c r="D142">
-        <v>0</v>
+        <v>9.54281044596147</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>12.41808834345983</v>
       </c>
       <c r="F142">
-        <v>0</v>
+        <v>9.458631943311863</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>11.17476398299503</v>
+        <v>9.077675205927477</v>
       </c>
       <c r="C143">
-        <v>9.546704200149732</v>
+        <v>7.617014258844509</v>
       </c>
       <c r="D143">
-        <v>0</v>
+        <v>9.584550069216631</v>
       </c>
       <c r="E143">
-        <v>0</v>
+        <v>12.48807680341835</v>
       </c>
       <c r="F143">
-        <v>0</v>
+        <v>9.489474171249288</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>11.2145999119517</v>
+        <v>9.101109788201002</v>
       </c>
       <c r="C144">
-        <v>9.571965036823109</v>
+        <v>7.634415309425254</v>
       </c>
       <c r="D144">
-        <v>0</v>
+        <v>9.625922078898336</v>
       </c>
       <c r="E144">
-        <v>0</v>
+        <v>12.55748584335998</v>
       </c>
       <c r="F144">
-        <v>0</v>
+        <v>9.519811329237335</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>11.25363760482371</v>
+        <v>9.124150435304079</v>
       </c>
       <c r="C145">
-        <v>9.59670056001319</v>
+        <v>7.651503786797661</v>
       </c>
       <c r="D145">
-        <v>0</v>
+        <v>9.666932385718145</v>
       </c>
       <c r="E145">
-        <v>0</v>
+        <v>12.62632062173214</v>
       </c>
       <c r="F145">
-        <v>0</v>
+        <v>9.549653964643591</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>11.29188903269989</v>
+        <v>9.146808490583979</v>
       </c>
       <c r="C146">
-        <v>9.620921593254955</v>
+        <v>7.668286690374578</v>
       </c>
       <c r="D146">
-        <v>0</v>
+        <v>9.707586820868176</v>
       </c>
       <c r="E146">
-        <v>0</v>
+        <v>12.69458629539038</v>
       </c>
       <c r="F146">
-        <v>0</v>
+        <v>9.579012423253001</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>11.32936604019725</v>
+        <v>9.169094996048507</v>
       </c>
       <c r="C147">
-        <v>9.644638760645778</v>
+        <v>7.684770894223896</v>
       </c>
       <c r="D147">
-        <v>0</v>
+        <v>9.747891134066991</v>
       </c>
       <c r="E147">
-        <v>0</v>
+        <v>12.76228801408909</v>
       </c>
       <c r="F147">
-        <v>0</v>
+        <v>9.607896850863924</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>11.36608033771974</v>
+        <v>9.191020716853105</v>
       </c>
       <c r="C148">
-        <v>9.667862493914244</v>
+        <v>7.700963142086879</v>
       </c>
       <c r="D148">
-        <v>0</v>
+        <v>9.787850997139758</v>
       </c>
       <c r="E148">
-        <v>0</v>
+        <v>12.82943091950801</v>
       </c>
       <c r="F148">
-        <v>0</v>
+        <v>9.636317196853403</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>11.40204349984569</v>
+        <v>9.212596138977654</v>
       </c>
       <c r="C149">
-        <v>9.690603027459796</v>
+        <v>7.716870053772954</v>
       </c>
       <c r="D149">
-        <v>0</v>
+        <v>9.827472002125491</v>
       </c>
       <c r="E149">
-        <v>0</v>
+        <v>12.89602014240998</v>
       </c>
       <c r="F149">
-        <v>0</v>
+        <v>9.664283215212746</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>11.43726696665745</v>
+        <v>9.233831473709367</v>
       </c>
       <c r="C150">
-        <v>9.712870406386209</v>
+        <v>7.732498120038592</v>
       </c>
       <c r="D150">
-        <v>0</v>
+        <v>9.866759660451995</v>
       </c>
       <c r="E150">
-        <v>0</v>
+        <v>12.9620607991343</v>
       </c>
       <c r="F150">
-        <v>0</v>
+        <v>9.691804469283298</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>11.47176203588474</v>
+        <v>9.254736669175802</v>
       </c>
       <c r="C151">
-        <v>9.734674482180335</v>
+        <v>7.747853709200048</v>
       </c>
       <c r="D151">
-        <v>0</v>
+        <v>9.90571941044149</v>
       </c>
       <c r="E151">
-        <v>0</v>
+        <v>13.02755798695386</v>
       </c>
       <c r="F151">
-        <v>0</v>
+        <v>9.71889033090137</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>11.50553986992353</v>
+        <v>9.275321412946282</v>
       </c>
       <c r="C152">
-        <v>9.756024920203002</v>
+        <v>7.762943062769841</v>
       </c>
       <c r="D152">
-        <v>0</v>
+        <v>9.944356608190326</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>13.09251679225845</v>
       </c>
       <c r="F152">
-        <v>0</v>
+        <v>9.745549985926326</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>11.53861148530721</v>
+        <v>9.29559513926093</v>
       </c>
       <c r="C153">
-        <v>9.776931196572527</v>
+        <v>7.777772301495892</v>
       </c>
       <c r="D153">
-        <v>0</v>
+        <v>9.982676535076825</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>13.1569422714998</v>
       </c>
       <c r="F153">
-        <v>0</v>
+        <v>9.771792437860418</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>11.57098776147661</v>
+        <v>9.315567032884708</v>
       </c>
       <c r="C154">
-        <v>9.7974026047498</v>
+        <v>7.792347422259893</v>
       </c>
       <c r="D154">
-        <v>0</v>
+        <v>10.02068439869676</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>13.22083946083717</v>
       </c>
       <c r="F154">
-        <v>0</v>
+        <v>9.797626504514639</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>11.60267943080449</v>
+        <v>9.335246039256702</v>
       </c>
       <c r="C155">
-        <v>9.817448254169273</v>
+        <v>7.806674304214374</v>
       </c>
       <c r="D155">
-        <v>0</v>
+        <v>10.05838532862592</v>
       </c>
       <c r="E155">
-        <v>0</v>
+        <v>13.2842133812818</v>
       </c>
       <c r="F155">
-        <v>0</v>
+        <v>9.82306082925213</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>11.63369708682671</v>
+        <v>9.35464086681481</v>
       </c>
       <c r="C156">
-        <v>9.837077074938662</v>
+        <v>7.820758705175596</v>
       </c>
       <c r="D156">
-        <v>0</v>
+        <v>10.095784382422</v>
       </c>
       <c r="E156">
-        <v>0</v>
+        <v>13.3470690159346</v>
       </c>
       <c r="F156">
-        <v>0</v>
+        <v>9.848103879506073</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>11.66405117613284</v>
+        <v>9.373759993597538</v>
       </c>
       <c r="C157">
-        <v>9.856297819117451</v>
+        <v>7.834606263658241</v>
       </c>
       <c r="D157">
-        <v>0</v>
+        <v>10.13288654370941</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>13.40941132755046</v>
       </c>
       <c r="F157">
-        <v>0</v>
+        <v>9.872763946751375</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>11.69375200450337</v>
+        <v>9.392611675020254</v>
       </c>
       <c r="C158">
-        <v>9.875119063774479</v>
+        <v>7.848222505905365</v>
       </c>
       <c r="D158">
-        <v>0</v>
+        <v>10.16969672321406</v>
       </c>
       <c r="E158">
-        <v>0</v>
+        <v>13.47124525339453</v>
       </c>
       <c r="F158">
-        <v>0</v>
+        <v>9.897049157769281</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>11.72280973290984</v>
+        <v>9.411203945705616</v>
       </c>
       <c r="C159">
-        <v>9.893549213637652</v>
+        <v>7.861612842639767</v>
       </c>
       <c r="D159">
-        <v>0</v>
+        <v>10.2062197608177</v>
       </c>
       <c r="E159">
-        <v>0</v>
+        <v>13.53257569437475</v>
       </c>
       <c r="F159">
-        <v>0</v>
+        <v>9.920967469561004</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>11.75123437957473</v>
+        <v>9.429544628679711</v>
       </c>
       <c r="C160">
-        <v>9.911596500776282</v>
+        <v>7.874782565916434</v>
       </c>
       <c r="D160">
-        <v>0</v>
+        <v>10.24246042489761</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>13.59340752727924</v>
       </c>
       <c r="F160">
-        <v>0</v>
+        <v>9.94452667566337</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>11.77903582037398</v>
+        <v>9.447641340311971</v>
       </c>
       <c r="C161">
-        <v>9.929268990262315</v>
+        <v>7.887736860449317</v>
       </c>
       <c r="D161">
-        <v>0</v>
+        <v>10.27842341434103</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>13.65374559468631</v>
       </c>
       <c r="F161">
-        <v>0</v>
+        <v>9.9677344102065</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>11.80622378776784</v>
+        <v>9.465501491837006</v>
       </c>
       <c r="C162">
-        <v>9.946574585488333</v>
+        <v>7.900480807354612</v>
       </c>
       <c r="D162">
-        <v>0</v>
+        <v>10.31411335932902</v>
       </c>
       <c r="E162">
-        <v>0</v>
+        <v>13.7135947055878</v>
       </c>
       <c r="F162">
-        <v>0</v>
+        <v>9.990598148466962</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>11.83280787401488</v>
+        <v>9.48313230131075</v>
       </c>
       <c r="C163">
-        <v>9.963521020596497</v>
+        <v>7.913019368787849</v>
       </c>
       <c r="D163">
-        <v>0</v>
+        <v>10.34953482139648</v>
       </c>
       <c r="E163">
-        <v>0</v>
+        <v>13.77295963952928</v>
       </c>
       <c r="F163">
-        <v>0</v>
+        <v>10.01312521102526</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>11.8587975285812</v>
+        <v>9.500540794007616</v>
       </c>
       <c r="C164">
-        <v>9.9801158703778</v>
+        <v>7.92535740415497</v>
       </c>
       <c r="D164">
-        <v>0</v>
+        <v>10.38469229564887</v>
       </c>
       <c r="E164">
-        <v>0</v>
+        <v>13.83184513800217</v>
       </c>
       <c r="F164">
-        <v>0</v>
+        <v>10.03532276604506</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>11.88420206255547</v>
+        <v>9.517733806258962</v>
       </c>
       <c r="C165">
-        <v>9.996366561199748</v>
+        <v>7.937499676416764</v>
       </c>
       <c r="D165">
-        <v>0</v>
+        <v>10.41959021060662</v>
       </c>
       <c r="E165">
-        <v>0</v>
+        <v>13.89025590884964</v>
       </c>
       <c r="F165">
-        <v>0</v>
+        <v>10.05719783302681</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>11.90903064583248</v>
+        <v>9.534717997062263</v>
       </c>
       <c r="C166">
-        <v>10.01228035430311</v>
+        <v>7.949450836748052</v>
       </c>
       <c r="D166">
-        <v>0</v>
+        <v>10.45423292958396</v>
       </c>
       <c r="E166">
-        <v>0</v>
+        <v>13.94819662625864</v>
       </c>
       <c r="F166">
-        <v>0</v>
+        <v>10.07875728478055</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>11.93329231167116</v>
+        <v>9.551499845806232</v>
       </c>
       <c r="C167">
-        <v>10.02786436120453</v>
+        <v>7.961215438168637</v>
       </c>
       <c r="D167">
-        <v>0</v>
+        <v>10.48862475215378</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>14.00567192499121</v>
       </c>
       <c r="F167">
-        <v>0</v>
+        <v>10.10000785055466</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>11.95699595437419</v>
+        <v>9.56808565994335</v>
       </c>
       <c r="C168">
-        <v>10.04312554783843</v>
+        <v>7.972797937525585</v>
       </c>
       <c r="D168">
-        <v>0</v>
+        <v>10.52276991409198</v>
       </c>
       <c r="E168">
-        <v>0</v>
+        <v>14.06268640587149</v>
       </c>
       <c r="F168">
-        <v>0</v>
+        <v>10.12095611931991</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>11.98015033330395</v>
+        <v>9.584481582796158</v>
       </c>
       <c r="C169">
-        <v>10.05807073127694</v>
+        <v>7.984202692161393</v>
       </c>
       <c r="D169">
-        <v>0</v>
+        <v>10.55667258899832</v>
       </c>
       <c r="E169">
-        <v>0</v>
+        <v>14.11924463301508</v>
       </c>
       <c r="F169">
-        <v>0</v>
+        <v>10.14160854160854</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>12.00276407177206</v>
+        <v>9.600693590234279</v>
       </c>
       <c r="C170">
-        <v>10.072706583544</v>
+        <v>7.995433964636423</v>
       </c>
       <c r="D170">
-        <v>0</v>
+        <v>10.59033688908213</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>14.17535113062328</v>
       </c>
       <c r="F170">
-        <v>0</v>
+        <v>10.16197143323422</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>12.02484565972527</v>
+        <v>9.616727503782135</v>
       </c>
       <c r="C171">
-        <v>10.08703963606051</v>
+        <v>8.006495923837271</v>
       </c>
       <c r="D171">
-        <v>0</v>
+        <v>10.62376686604478</v>
       </c>
       <c r="E171">
-        <v>0</v>
+        <v>14.23101038888939</v>
       </c>
       <c r="F171">
-        <v>0</v>
+        <v>10.18205097788868</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>12.04640345440984</v>
+        <v>9.632588991129792</v>
       </c>
       <c r="C172">
-        <v>10.10107628159811</v>
+        <v>8.017392646944808</v>
       </c>
       <c r="D172">
-        <v>0</v>
+        <v>10.65696651197458</v>
       </c>
       <c r="E172">
-        <v>0</v>
+        <v>14.28622685768318</v>
       </c>
       <c r="F172">
-        <v>0</v>
+        <v>10.2018532285952</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>12.06744568157093</v>
+        <v>9.648283566475351</v>
       </c>
       <c r="C173">
-        <v>10.11482277665153</v>
+        <v>8.028128121298995</v>
       </c>
       <c r="D173">
-        <v>0</v>
+        <v>10.68993976042572</v>
       </c>
       <c r="E173">
-        <v>0</v>
+        <v>14.34100494880716</v>
       </c>
       <c r="F173">
-        <v>0</v>
+        <v>10.2213841125916</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>12.08798043742694</v>
+        <v>9.663816603474281</v>
       </c>
       <c r="C174">
-        <v>10.1282852439568</v>
+        <v>8.038706245834394</v>
       </c>
       <c r="D174">
-        <v>0</v>
+        <v>10.72269048721864</v>
       </c>
       <c r="E174">
-        <v>0</v>
+        <v>14.39534903797623</v>
       </c>
       <c r="F174">
-        <v>0</v>
+        <v>10.24064943243177</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>12.10801568911778</v>
+        <v>9.67919333243173</v>
       </c>
       <c r="C175">
-        <v>10.14146967346436</v>
+        <v>8.049130832880165</v>
       </c>
       <c r="D175">
-        <v>0</v>
+        <v>10.75522251127574</v>
       </c>
       <c r="E175">
-        <v>0</v>
+        <v>14.44926346006885</v>
       </c>
       <c r="F175">
-        <v>0</v>
+        <v>10.25965486775816</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>12.12755927724428</v>
+        <v>9.69441884444559</v>
       </c>
       <c r="C176">
-        <v>10.15438192860856</v>
+        <v>8.059405610271085</v>
       </c>
       <c r="D176">
-        <v>0</v>
+        <v>10.7875395957957</v>
       </c>
       <c r="E176">
-        <v>0</v>
+        <v>14.50275251229791</v>
       </c>
       <c r="F176">
-        <v>0</v>
+        <v>10.2784059806513</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>12.14661891621198</v>
+        <v>9.709498101120637</v>
       </c>
       <c r="C177">
-        <v>10.16702774624461</v>
+        <v>8.069534222790731</v>
       </c>
       <c r="D177">
-        <v>0</v>
+        <v>10.81964544887157</v>
       </c>
       <c r="E177">
-        <v>0</v>
+        <v>14.55582045395353</v>
       </c>
       <c r="F177">
-        <v>0</v>
+        <v>10.2969082155243</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>12.16520219725117</v>
+        <v>9.724435930836988</v>
       </c>
       <c r="C178">
-        <v>10.17941273747194</v>
+        <v>8.079520233868948</v>
       </c>
       <c r="D178">
-        <v>0</v>
+        <v>10.85154372453618</v>
       </c>
       <c r="E178">
-        <v>0</v>
+        <v>14.60847150411247</v>
       </c>
       <c r="F178">
-        <v>0</v>
+        <v>10.31516690195369</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>12.18331658769237</v>
+        <v>9.739237037006227</v>
       </c>
       <c r="C179">
-        <v>10.19154239432043</v>
+        <v>8.089367127677617</v>
       </c>
       <c r="D179">
-        <v>0</v>
+        <v>10.88323802373151</v>
       </c>
       <c r="E179">
-        <v>0</v>
+        <v>14.66070984428807</v>
       </c>
       <c r="F179">
-        <v>0</v>
+        <v>10.33318725917886</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>12.20096943343311</v>
+        <v>9.753906002809055</v>
       </c>
       <c r="C180">
-        <v>10.20342208968138</v>
+        <v>8.099078310658324</v>
       </c>
       <c r="D180">
-        <v>0</v>
+        <v>10.91473189478161</v>
       </c>
       <c r="E180">
-        <v>0</v>
+        <v>14.71253961695316</v>
       </c>
       <c r="F180">
-        <v>0</v>
+        <v>10.35097439543009</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>12.21816796265908</v>
+        <v>9.768447287456166</v>
       </c>
       <c r="C181">
-        <v>10.21505707886119</v>
+        <v>8.108657111997671</v>
       </c>
       <c r="D181">
-        <v>0</v>
+        <v>10.94602883485271</v>
       </c>
       <c r="E181">
-        <v>0</v>
+        <v>14.76396492499578</v>
       </c>
       <c r="F181">
-        <v>0</v>
+        <v>10.36853331234451</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>12.23491928305729</v>
+        <v>9.782865239417879</v>
       </c>
       <c r="C182">
-        <v>10.22645250357643</v>
+        <v>8.118106787687216</v>
       </c>
       <c r="D182">
-        <v>0</v>
+        <v>10.97713229037627</v>
       </c>
       <c r="E182">
-        <v>0</v>
+        <v>14.81498983435169</v>
       </c>
       <c r="F182">
-        <v>0</v>
+        <v>10.38586890762398</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>12.25123038539575</v>
+        <v>9.797164093668155</v>
       </c>
       <c r="C183">
-        <v>10.23761339480636</v>
+        <v>8.12743052073581</v>
       </c>
       <c r="D183">
-        <v>0</v>
+        <v>11.00804565783134</v>
       </c>
       <c r="E183">
-        <v>0</v>
+        <v>14.86561837076733</v>
       </c>
       <c r="F183">
-        <v>0</v>
+        <v>10.40298597426618</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>12.26710814753064</v>
+        <v>9.811347973147628</v>
       </c>
       <c r="C184">
-        <v>10.2485446731316</v>
+        <v>8.136631421523205</v>
       </c>
       <c r="D184">
-        <v>0</v>
+        <v>11.03877228509142</v>
       </c>
       <c r="E184">
-        <v>0</v>
+        <v>14.91585452185104</v>
       </c>
       <c r="F184">
-        <v>0</v>
+        <v>10.41988920695621</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>12.28255933370427</v>
+        <v>9.825420899099784</v>
       </c>
       <c r="C185">
-        <v>10.25925115080716</v>
+        <v>8.145712531454897</v>
       </c>
       <c r="D185">
-        <v>0</v>
+        <v>11.06931547157567</v>
       </c>
       <c r="E185">
-        <v>0</v>
+        <v>14.96570223782004</v>
       </c>
       <c r="F185">
-        <v>0</v>
+        <v>10.43658320182982</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>12.29759059403804</v>
+        <v>9.839386787632815</v>
       </c>
       <c r="C186">
-        <v>10.26973753764452</v>
+        <v>8.154676824506694</v>
       </c>
       <c r="D186">
-        <v>0</v>
+        <v>11.09967846953326</v>
       </c>
       <c r="E186">
-        <v>0</v>
+        <v>15.01516542938602</v>
       </c>
       <c r="F186">
-        <v>0</v>
+        <v>10.45307245742064</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>12.31220846952757</v>
+        <v>9.853249454066647</v>
       </c>
       <c r="C187">
-        <v>10.28000844004755</v>
+        <v>8.163527206945847</v>
       </c>
       <c r="D187">
-        <v>0</v>
+        <v>11.12986448483123</v>
       </c>
       <c r="E187">
-        <v>0</v>
+        <v>15.06424796976253</v>
       </c>
       <c r="F187">
-        <v>0</v>
+        <v>10.46936138038505</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>12.32641939376186</v>
+        <v>9.86701261974155</v>
       </c>
       <c r="C188">
-        <v>10.29006836080236</v>
+        <v>8.172266519312968</v>
       </c>
       <c r="D188">
-        <v>0</v>
+        <v>11.15987667721282</v>
       </c>
       <c r="E188">
-        <v>0</v>
+        <v>15.1129536945472</v>
       </c>
       <c r="F188">
-        <v>0</v>
+        <v>10.48545428463701</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>12.34022969119408</v>
+        <v>9.880679908335148</v>
       </c>
       <c r="C189">
-        <v>10.29992170814812</v>
+        <v>8.180897540189321</v>
       </c>
       <c r="D189">
-        <v>0</v>
+        <v>11.18971816190246</v>
       </c>
       <c r="E189">
-        <v>0</v>
+        <v>15.16128640086559</v>
       </c>
       <c r="F189">
-        <v>0</v>
+        <v>10.50135539332757</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>12.35364558128307</v>
+        <v>9.894254854012793</v>
       </c>
       <c r="C190">
-        <v>10.30957279331333</v>
+        <v>8.189422985110619</v>
       </c>
       <c r="D190">
-        <v>0</v>
+        <v>11.21939200974565</v>
       </c>
       <c r="E190">
-        <v>0</v>
+        <v>15.20924984897016</v>
       </c>
       <c r="F190">
-        <v>0</v>
+        <v>10.51706884349602</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>12.36667317952247</v>
+        <v>9.90774090305144</v>
       </c>
       <c r="C191">
-        <v>10.31902582986437</v>
+        <v>8.19784550688132</v>
       </c>
       <c r="D191">
-        <v>0</v>
+        <v>11.24890124802453</v>
       </c>
       <c r="E191">
-        <v>0</v>
+        <v>15.25684776149475</v>
       </c>
       <c r="F191">
-        <v>0</v>
+        <v>10.53259868484079</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>12.37931849877995</v>
+        <v>9.92114141186377</v>
       </c>
       <c r="C192">
-        <v>10.32828494211605</v>
+        <v>8.206167701523418</v>
       </c>
       <c r="D192">
-        <v>0</v>
+        <v>11.27824886168543</v>
       </c>
       <c r="E192">
-        <v>0</v>
+        <v>15.30408382370994</v>
       </c>
       <c r="F192">
-        <v>0</v>
+        <v>10.54794888312374</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>12.3915874510188</v>
+        <v>9.93445965701259</v>
       </c>
       <c r="C193">
-        <v>10.33735416424565</v>
+        <v>8.21439210641754</v>
       </c>
       <c r="D193">
-        <v>0</v>
+        <v>11.30743779331306</v>
       </c>
       <c r="E193">
-        <v>0</v>
+        <v>15.35096168464426</v>
       </c>
       <c r="F193">
-        <v>0</v>
+        <v>10.56312332309539</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>12.40348584736724</v>
+        <v>9.947698832495862</v>
       </c>
       <c r="C194">
-        <v>10.34623744000781</v>
+        <v>8.222521199693549</v>
       </c>
       <c r="D194">
-        <v>0</v>
+        <v>11.33647094453755</v>
       </c>
       <c r="E194">
-        <v>0</v>
+        <v>15.39748495601949</v>
       </c>
       <c r="F194">
-        <v>0</v>
+        <v>10.57812580717987</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>12.41501940153001</v>
+        <v>9.960862051488302</v>
       </c>
       <c r="C195">
-        <v>10.35493862662218</v>
+        <v>8.230557406930114</v>
       </c>
       <c r="D195">
-        <v>0</v>
+        <v>11.36535117650531</v>
       </c>
       <c r="E195">
-        <v>0</v>
+        <v>15.44365721333302</v>
       </c>
       <c r="F195">
-        <v>0</v>
+        <v>10.59296006068431</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>12.42619373085169</v>
+        <v>9.973952353740618</v>
       </c>
       <c r="C196">
-        <v>10.36346149892844</v>
+        <v>8.238503099051421</v>
       </c>
       <c r="D196">
-        <v>0</v>
+        <v>11.39408131016942</v>
       </c>
       <c r="E196">
-        <v>0</v>
+        <v>15.48948199625864</v>
       </c>
       <c r="F196">
-        <v>0</v>
+        <v>10.60762973216943</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>12.43701435749034</v>
+        <v>9.98697270249466</v>
       </c>
       <c r="C197">
-        <v>10.37180974764847</v>
+        <v>8.246360592277247</v>
       </c>
       <c r="D197">
-        <v>0</v>
+        <v>11.42266412780239</v>
       </c>
       <c r="E197">
-        <v>0</v>
+        <v>15.5349628080803</v>
       </c>
       <c r="F197">
-        <v>0</v>
+        <v>10.62213839328658</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>12.44748671013576</v>
+        <v>9.999925988813398</v>
       </c>
       <c r="C198">
-        <v>10.3799869803549</v>
+        <v>8.25413215251065</v>
       </c>
       <c r="D198">
-        <v>0</v>
+        <v>11.45110237296024</v>
       </c>
       <c r="E198">
-        <v>0</v>
+        <v>15.58010311673435</v>
       </c>
       <c r="F198">
-        <v>0</v>
+        <v>10.63648954421519</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>12.45761612533572</v>
+        <v>10.01281503570228</v>
       </c>
       <c r="C199">
-        <v>10.38799672890497</v>
+        <v>8.261819995837794</v>
       </c>
       <c r="D199">
-        <v>0</v>
+        <v>11.47939875133959</v>
       </c>
       <c r="E199">
-        <v>0</v>
+        <v>15.62490635486325</v>
       </c>
       <c r="F199">
-        <v>0</v>
+        <v>10.65068661262898</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>12.46740784895161</v>
+        <v>10.02564259506942</v>
       </c>
       <c r="C200">
-        <v>10.39584244690332</v>
+        <v>8.269426287828484</v>
       </c>
       <c r="D200">
-        <v>0</v>
+        <v>11.50755593181784</v>
       </c>
       <c r="E200">
-        <v>0</v>
+        <v>15.66937591975508</v>
       </c>
       <c r="F200">
-        <v>0</v>
+        <v>10.66473295490412</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>12.47686703658715</v>
+        <v>10.0384113552943</v>
       </c>
       <c r="C201">
-        <v>10.40352750862531</v>
+        <v>8.27695314568062</v>
       </c>
       <c r="D201">
-        <v>0</v>
+        <v>11.5355765463022</v>
       </c>
       <c r="E201">
-        <v>0</v>
+        <v>15.71351517423306</v>
       </c>
       <c r="F201">
-        <v>0</v>
+        <v>10.67863186045617</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>12.4859987574157</v>
+        <v>10.0511239406024</v>
       </c>
       <c r="C202">
-        <v>10.41105521844395</v>
+        <v>8.284402641357113</v>
       </c>
       <c r="D202">
-        <v>0</v>
+        <v>11.56346319124095</v>
       </c>
       <c r="E202">
-        <v>0</v>
+        <v>15.7573274464234</v>
       </c>
       <c r="F202">
-        <v>0</v>
+        <v>10.69238655050309</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>12.49480799396815</v>
+        <v>10.06378291069146</v>
       </c>
       <c r="C203">
-        <v>10.41842880748879</v>
+        <v>8.29177680011815</v>
       </c>
       <c r="D203">
-        <v>0</v>
+        <v>11.59121842764528</v>
       </c>
       <c r="E203">
-        <v>0</v>
+        <v>15.80081603020812</v>
       </c>
       <c r="F203">
-        <v>0</v>
+        <v>10.7060001803831</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>12.50329964275096</v>
+        <v>10.07639076780046</v>
       </c>
       <c r="C204">
-        <v>10.42565143336402</v>
+        <v>8.299077600966447</v>
       </c>
       <c r="D204">
-        <v>0</v>
+        <v>11.61884478137105</v>
       </c>
       <c r="E204">
-        <v>0</v>
+        <v>15.84398418577899</v>
       </c>
       <c r="F204">
-        <v>0</v>
+        <v>10.71947584249067</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>12.51147851784243</v>
+        <v>10.08894995439954</v>
       </c>
       <c r="C205">
-        <v>10.43272618625938</v>
+        <v>8.306306981699437</v>
       </c>
       <c r="D205">
-        <v>0</v>
+        <v>11.64634474512203</v>
       </c>
       <c r="E205">
-        <v>0</v>
+        <v>15.88683513947575</v>
       </c>
       <c r="F205">
-        <v>0</v>
+        <v>10.73281656498598</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>12.51934935105063</v>
+        <v>10.10146285511857</v>
       </c>
       <c r="C206">
-        <v>10.43965608945855</v>
+        <v>8.313466836947898</v>
       </c>
       <c r="D206">
-        <v>0</v>
+        <v>11.67372077818511</v>
       </c>
       <c r="E206">
-        <v>0</v>
+        <v>15.92937208440274</v>
       </c>
       <c r="F206">
-        <v>0</v>
+        <v>10.74602531551661</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>12.52691679222836</v>
+        <v>10.11393180163916</v>
       </c>
       <c r="C207">
-        <v>10.44644409827974</v>
+        <v>8.320559017432828</v>
       </c>
       <c r="D207">
-        <v>0</v>
+        <v>11.70097530665603</v>
       </c>
       <c r="E207">
-        <v>0</v>
+        <v>15.97159818073587</v>
       </c>
       <c r="F207">
-        <v>0</v>
+        <v>10.75910500223432</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>12.53418541189376</v>
+        <v>10.12635907023929</v>
       </c>
       <c r="C208">
-        <v>10.45309310249286</v>
+        <v>8.327585336104912</v>
       </c>
       <c r="D208">
-        <v>0</v>
+        <v>11.72811072295603</v>
       </c>
       <c r="E208">
-        <v>0</v>
+        <v>16.01351655579706</v>
       </c>
       <c r="F208">
-        <v>0</v>
+        <v>10.77205847297604</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>12.5411597032241</v>
+        <v>10.13874688588448</v>
       </c>
       <c r="C209">
-        <v>10.45960593105868</v>
+        <v>8.33454756582041</v>
       </c>
       <c r="D209">
-        <v>0</v>
+        <v>11.75512939045611</v>
       </c>
       <c r="E209">
-        <v>0</v>
+        <v>16.05513030467179</v>
       </c>
       <c r="F209">
-        <v>0</v>
+        <v>10.78488851999136</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>12.54784408174379</v>
+        <v>10.15109742427278</v>
       </c>
       <c r="C210">
-        <v>10.4659853499043</v>
+        <v>8.34144743887172</v>
       </c>
       <c r="D210">
-        <v>0</v>
+        <v>11.78203364089008</v>
       </c>
       <c r="E210">
-        <v>0</v>
+        <v>16.09644249030678</v>
       </c>
       <c r="F210">
-        <v>0</v>
+        <v>10.79759787903767</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>12.55424288642226</v>
+        <v>10.16341280974898</v>
       </c>
       <c r="C211">
-        <v>10.47223406190899</v>
+        <v>8.348286651506873</v>
       </c>
       <c r="D211">
-        <v>0</v>
+        <v>11.80882577471703</v>
       </c>
       <c r="E211">
-        <v>0</v>
+        <v>16.13745614372839</v>
       </c>
       <c r="F211">
-        <v>0</v>
+        <v>10.81018923002634</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>12.56036038334178</v>
+        <v>10.17569512164109</v>
       </c>
       <c r="C212">
-        <v>10.47835471422536</v>
+        <v>8.355066863458276</v>
       </c>
       <c r="D212">
-        <v>0</v>
+        <v>11.83550805957007</v>
       </c>
       <c r="E212">
-        <v>0</v>
+        <v>16.17817426446335</v>
       </c>
       <c r="F212">
-        <v>0</v>
+        <v>10.82266520081482</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>12.5662007650081</v>
+        <v>10.18794639218148</v>
       </c>
       <c r="C213">
-        <v>10.48434989549583</v>
+        <v>8.361789697326296</v>
       </c>
       <c r="D213">
-        <v>0</v>
+        <v>11.86208273811578</v>
       </c>
       <c r="E213">
-        <v>0</v>
+        <v>16.21859982104544</v>
       </c>
       <c r="F213">
-        <v>0</v>
+        <v>10.835028366152</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>12.57176815020962</v>
+        <v>10.20016860634101</v>
       </c>
       <c r="C214">
-        <v>10.49022213436468</v>
+        <v>8.368456740717763</v>
       </c>
       <c r="D214">
-        <v>0</v>
+        <v>11.88855202268662</v>
       </c>
       <c r="E214">
-        <v>0</v>
+        <v>16.25873575116613</v>
       </c>
       <c r="F214">
-        <v>0</v>
+        <v>10.84728124915089</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>12.5770665890773</v>
+        <v>10.21236371003917</v>
       </c>
       <c r="C215">
-        <v>10.49597390793101</v>
+        <v>8.375069548365154</v>
       </c>
       <c r="D215">
-        <v>0</v>
+        <v>11.91491809651443</v>
       </c>
       <c r="E215">
-        <v>0</v>
+        <v>16.29858496159976</v>
       </c>
       <c r="F215">
-        <v>0</v>
+        <v>10.85942632402179</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>12.58210006177332</v>
+        <v>10.22453360708773</v>
       </c>
       <c r="C216">
-        <v>10.50160763850164</v>
+        <v>8.381629640826944</v>
       </c>
       <c r="D216">
-        <v>0</v>
+        <v>11.94118311222632</v>
       </c>
       <c r="E216">
-        <v>0</v>
+        <v>16.33815032893454</v>
       </c>
       <c r="F216">
-        <v>0</v>
+        <v>10.87146601398574</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>12.58687247874616</v>
+        <v>10.2366801601164</v>
       </c>
       <c r="C217">
-        <v>10.50712569364268</v>
+        <v>8.388138505069769</v>
       </c>
       <c r="D217">
-        <v>0</v>
+        <v>11.96734919892489</v>
       </c>
       <c r="E217">
-        <v>0</v>
+        <v>16.37743470001817</v>
       </c>
       <c r="F217">
-        <v>0</v>
+        <v>10.88340269544734</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>12.59138768425862</v>
+        <v>10.24880518354931</v>
       </c>
       <c r="C218">
-        <v>10.51253039005592</v>
+        <v>8.394597598249774</v>
       </c>
       <c r="D218">
-        <v>0</v>
+        <v>11.99341845741045</v>
       </c>
       <c r="E218">
-        <v>0</v>
+        <v>16.41644089240851</v>
       </c>
       <c r="F218">
-        <v>0</v>
+        <v>10.89523869927622</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>12.59564945681948</v>
+        <v>10.26091046706846</v>
       </c>
       <c r="C219">
-        <v>10.51782399514361</v>
+        <v>8.401008346051235</v>
       </c>
       <c r="D219">
-        <v>0</v>
+        <v>12.0193929615246</v>
       </c>
       <c r="E219">
-        <v>0</v>
+        <v>16.45517169363732</v>
       </c>
       <c r="F219">
-        <v>0</v>
+        <v>10.90697631100981</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>12.59966150911518</v>
+        <v>10.27299776035624</v>
       </c>
       <c r="C220">
-        <v>10.52300872566495</v>
+        <v>8.407372142215253</v>
       </c>
       <c r="D220">
-        <v>0</v>
+        <v>12.04527475714202</v>
       </c>
       <c r="E220">
-        <v>0</v>
+        <v>16.49362986246271</v>
       </c>
       <c r="F220">
-        <v>0</v>
+        <v>10.91861776829267</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>12.60342748966196</v>
+        <v>10.28506877749551</v>
       </c>
       <c r="C221">
-        <v>10.52808674895623</v>
+        <v>8.413690353257543</v>
       </c>
       <c r="D221">
-        <v>0</v>
+        <v>12.07106586725247</v>
       </c>
       <c r="E221">
-        <v>0</v>
+        <v>16.53181812895336</v>
       </c>
       <c r="F221">
-        <v>0</v>
+        <v>10.93016526449682</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>12.60695098548848</v>
+        <v>10.29712517960196</v>
       </c>
       <c r="C222">
-        <v>10.53306018755098</v>
+        <v>8.419964316590606</v>
       </c>
       <c r="D222">
-        <v>0</v>
+        <v>12.09676828877824</v>
       </c>
       <c r="E222">
-        <v>0</v>
+        <v>16.5697391949241</v>
       </c>
       <c r="F222">
-        <v>0</v>
+        <v>10.94162095625268</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>12.61023552137909</v>
+        <v>10.30916861770944</v>
       </c>
       <c r="C223">
-        <v>10.53793111707524</v>
+        <v>8.426195339899076</v>
       </c>
       <c r="D223">
-        <v>0</v>
+        <v>12.12238399371357</v>
       </c>
       <c r="E223">
-        <v>0</v>
+        <v>16.60739573387182</v>
       </c>
       <c r="F223">
-        <v>0</v>
+        <v>10.95298695725408</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>12.61328456018836</v>
+        <v>10.32120070321094</v>
       </c>
       <c r="C224">
-        <v>10.54270156571727</v>
+        <v>8.43238470523708</v>
       </c>
       <c r="D224">
-        <v>0</v>
+        <v>12.14791492864465</v>
       </c>
       <c r="E224">
-        <v>0</v>
+        <v>16.64479039158194</v>
       </c>
       <c r="F224">
-        <v>0</v>
+        <v>10.96426533795758</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>12.61610150704531</v>
+        <v>10.33322301700985</v>
       </c>
       <c r="C225">
-        <v>10.54737352056181</v>
+        <v>8.438533667987691</v>
       </c>
       <c r="D225">
-        <v>0</v>
+        <v>12.17336301800256</v>
       </c>
       <c r="E225">
-        <v>0</v>
+        <v>16.6819257863298</v>
       </c>
       <c r="F225">
-        <v>0</v>
+        <v>10.97545812118267</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>12.61868970820226</v>
+        <v>10.34523709175892</v>
       </c>
       <c r="C226">
-        <v>10.55194892504185</v>
+        <v>8.444643456497563</v>
       </c>
       <c r="D226">
-        <v>0</v>
+        <v>12.19873016233309</v>
       </c>
       <c r="E226">
-        <v>0</v>
+        <v>16.71880450880901</v>
       </c>
       <c r="F226">
-        <v>0</v>
+        <v>10.98656730450245</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>12.62105245043977</v>
+        <v>10.35724445096535</v>
       </c>
       <c r="C227">
-        <v>10.55642967812128</v>
+        <v>8.450715274047001</v>
       </c>
       <c r="D227">
-        <v>0</v>
+        <v>12.22401823883695</v>
       </c>
       <c r="E227">
-        <v>0</v>
+        <v>16.75542912327042</v>
       </c>
       <c r="F227">
-        <v>0</v>
+        <v>10.99759484318061</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>12.62319296609568</v>
+        <v>10.36924658285906</v>
       </c>
       <c r="C228">
-        <v>10.56081763982005</v>
+        <v>8.456750300056845</v>
       </c>
       <c r="D228">
-        <v>0</v>
+        <v>12.24922910008963</v>
       </c>
       <c r="E228">
-        <v>0</v>
+        <v>16.79180216720301</v>
       </c>
       <c r="F228">
-        <v>0</v>
+        <v>11.00854265525385</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>12.62511443155019</v>
+        <v>10.38124494824082</v>
       </c>
       <c r="C229">
-        <v>10.56511462988483</v>
+        <v>8.462749689128795</v>
       </c>
       <c r="D229">
-        <v>0</v>
+        <v>12.2743645792626</v>
       </c>
       <c r="E229">
-        <v>0</v>
+        <v>16.82792615179578</v>
       </c>
       <c r="F229">
-        <v>0</v>
+        <v>11.01941261092108</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>12.62681996750834</v>
+        <v>10.39324097186817</v>
       </c>
       <c r="C230">
-        <v>10.56932242737458</v>
+        <v>8.468714571698689</v>
       </c>
       <c r="D230">
-        <v>0</v>
+        <v>12.29942648679686</v>
       </c>
       <c r="E230">
-        <v>0</v>
+        <v>16.86380356141213</v>
       </c>
       <c r="F230">
-        <v>0</v>
+        <v>11.03020655949261</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>12.62831264139703</v>
+        <v>10.40523606103267</v>
       </c>
       <c r="C231">
-        <v>10.57344277298372</v>
+        <v>8.474646056662154</v>
       </c>
       <c r="D231">
-        <v>0</v>
+        <v>12.32441661146205</v>
       </c>
       <c r="E231">
-        <v>0</v>
+        <v>16.89943685546818</v>
       </c>
       <c r="F231">
-        <v>0</v>
+        <v>11.04092631079923</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>12.6295954686583</v>
+        <v>10.41723159630996</v>
       </c>
       <c r="C232">
-        <v>10.57747737113323</v>
+        <v>8.480545230107543</v>
       </c>
       <c r="D232">
-        <v>0</v>
+        <v>12.34933671936989</v>
       </c>
       <c r="E232">
-        <v>0</v>
+        <v>16.93482846769061</v>
       </c>
       <c r="F232">
-        <v>0</v>
+        <v>11.05157364110961</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>12.63067141219742</v>
+        <v>10.42922893330359</v>
       </c>
       <c r="C233">
-        <v>10.58142788861836</v>
+        <v>8.48641315509386</v>
       </c>
       <c r="D233">
-        <v>0</v>
+        <v>12.37418855812641</v>
       </c>
       <c r="E233">
-        <v>0</v>
+        <v>16.96998080659149</v>
       </c>
       <c r="F233">
-        <v>0</v>
+        <v>11.06215028638968</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>12.63154338322179</v>
+        <v>10.44122939847892</v>
       </c>
       <c r="C234">
-        <v>10.58529595505339</v>
+        <v>8.492250875066476</v>
       </c>
       <c r="D234">
-        <v>0</v>
+        <v>12.39897385432302</v>
       </c>
       <c r="E234">
-        <v>0</v>
+        <v>17.0048962554288</v>
       </c>
       <c r="F234">
-        <v>0</v>
+        <v>11.07265795690571</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>12.63221424435532</v>
+        <v>10.4532342992526</v>
       </c>
       <c r="C235">
-        <v>10.58908316700775</v>
+        <v>8.498059412467398</v>
       </c>
       <c r="D235">
-        <v>0</v>
+        <v>12.42369431433853</v>
       </c>
       <c r="E235">
-        <v>0</v>
+        <v>17.03957717307355</v>
       </c>
       <c r="F235">
-        <v>0</v>
+        <v>11.08309833041396</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>12.6326868086159</v>
+        <v>10.46524492148268</v>
       </c>
       <c r="C236">
-        <v>10.59279108620249</v>
+        <v>8.503839768093087</v>
       </c>
       <c r="D236">
-        <v>0</v>
+        <v>12.44835162309052</v>
       </c>
       <c r="E236">
-        <v>0</v>
+        <v>17.07402589408307</v>
       </c>
       <c r="F236">
-        <v>0</v>
+        <v>11.09347305318035</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>12.63296383921953</v>
+        <v>10.47726252883609</v>
       </c>
       <c r="C237">
-        <v>10.5964212387764</v>
+        <v>8.509592924602012</v>
       </c>
       <c r="D237">
-        <v>0</v>
+        <v>12.47294744862681</v>
       </c>
       <c r="E237">
-        <v>0</v>
+        <v>17.10824472889462</v>
       </c>
       <c r="F237">
-        <v>0</v>
+        <v>11.10378373843864</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>12.63304805372167</v>
+        <v>10.48928836013972</v>
       </c>
       <c r="C238">
-        <v>10.59997512045777</v>
+        <v>8.51531984522452</v>
       </c>
       <c r="D238">
-        <v>0</v>
+        <v>12.49748343924603</v>
       </c>
       <c r="E238">
-        <v>0</v>
+        <v>17.14223596367542</v>
       </c>
       <c r="F238">
-        <v>0</v>
+        <v>11.11403197079642</v>
       </c>
     </row>
   </sheetData>
